--- a/e61 Projects/Fiscal sustainability/OECD comparison/Nolan initial.xlsx
+++ b/e61 Projects/Fiscal sustainability/OECD comparison/Nolan initial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MattNolan\Git\TVHENZ\e61 Projects\Fiscal sustainability\OECD comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EACE08D-FDDD-401B-815F-4D3A75BE396E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F1A9F0-FF68-4FDD-9724-8553D071AC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{5C5EE693-185A-47EF-99E8-F1305E07FF3E}"/>
+    <workbookView minimized="1" xWindow="465" yWindow="105" windowWidth="28785" windowHeight="15255" activeTab="2" xr2:uid="{5C5EE693-185A-47EF-99E8-F1305E07FF3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenses" sheetId="6" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
   <si>
     <t>Defence</t>
   </si>
@@ -295,15 +295,33 @@
   <si>
     <t>From GFS</t>
   </si>
+  <si>
+    <t>Interest bearing</t>
+  </si>
+  <si>
+    <t>Provisions and payables</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Int%GDP</t>
+  </si>
+  <si>
+    <t>PP%GDP</t>
+  </si>
+  <si>
+    <t>Other economic affairs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,12 +349,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -377,11 +389,11 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2634,6 +2646,711 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Liabilities!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Int%GDP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Liabilities!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2029</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Liabilities!$F$2:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.13485624950956426</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11648789093643802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1011186492660434</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0602781686194914E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7839023899103216E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4087681156288221E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4688716439889674E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8356787034273779E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.700416994099012E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0721427189792023E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13156787084180835</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1498096661403113</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.18663484232424313</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.19557202052990041</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.22722304756473938</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.26110122912237471</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.30279640223026982</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.32180813538030195</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.3232331622194427</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.33144492795747182</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.41503705976391558</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.44339881351332949</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.38534816328509836</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.34137055639856795</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.33488737586360628</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.33544876630833093</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.35434503603037998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.36609946690529066</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.3714313388612423</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.37325783132530121</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F1E2-4DB8-8C76-292AAF898D73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Liabilities!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PP%GDP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Liabilities!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2029</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Liabilities!$G$2:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.1428843054524383</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14164042046694675</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13920718939041415</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14629378291890277</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14042965382118319</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14066545355526644</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14129935663428997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13481784164734512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11719746734789549</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13793240127980314</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14798404996308429</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.14327346041055719</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.19958846913984987</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.17098818034567773</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.18050803583487146</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.19253315699678666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.23103583052458629</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.19858208887290801</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.20942613873254118</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.25792087800579461</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.27866681738175592</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.25318651351841143</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.19199306192387428</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.17616237041930086</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.18285152404633029</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.17686232179620601</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1762036980448588</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.17206154681001926</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.16874942439668833</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.16486355421686746</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F1E2-4DB8-8C76-292AAF898D73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="143102064"/>
+        <c:axId val="143100624"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="143102064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="143100624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="143100624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="143102064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2794,6 +3511,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4348,6 +5105,527 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5014,6 +6292,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDF303F7-101F-6F65-F015-33FD1D51116C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6797,8 +8116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B4D560-835F-4CEF-BDE2-E61A63483F2C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6809,14 +8128,170 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D47E9C-FD1E-4A71-9A9C-58BAABCECEC5}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3899</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3803</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4899</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>5165</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>5926</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>6507</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>8628</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>9046</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>10054</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>10631</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>10838</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>10046</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>9199</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>9354</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>9861</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>9714</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>65494</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>82067</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>21781</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>14399</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>13490.420999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>14063</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>13558</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>12636</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>12263</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>12285</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6843,7 +8318,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="E2" sqref="E2:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7639,14 +9114,790 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E620417-BA7E-4DE8-A7B2-8EB5147C286E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2000</v>
+      </c>
+      <c r="B2">
+        <v>89366</v>
+      </c>
+      <c r="C2">
+        <v>94686</v>
+      </c>
+      <c r="D2">
+        <v>184052</v>
+      </c>
+      <c r="E2">
+        <v>662676</v>
+      </c>
+      <c r="F2" s="2">
+        <f>B2/E2</f>
+        <v>0.13485624950956426</v>
+      </c>
+      <c r="G2" s="2">
+        <f>C2/E2</f>
+        <v>0.1428843054524383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="B3">
+        <v>82404</v>
+      </c>
+      <c r="C3">
+        <v>100197</v>
+      </c>
+      <c r="D3">
+        <v>182601</v>
+      </c>
+      <c r="E3">
+        <v>707404</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F31" si="0">B3/E3</f>
+        <v>0.11648789093643802</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G31" si="1">C3/E3</f>
+        <v>0.14164042046694675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2002</v>
+      </c>
+      <c r="B4">
+        <v>76491</v>
+      </c>
+      <c r="C4">
+        <v>105303</v>
+      </c>
+      <c r="D4">
+        <v>181794</v>
+      </c>
+      <c r="E4">
+        <v>756448</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1011186492660434</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.13920718939041415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2003</v>
+      </c>
+      <c r="B5">
+        <v>72764</v>
+      </c>
+      <c r="C5">
+        <v>117490</v>
+      </c>
+      <c r="D5">
+        <v>190255</v>
+      </c>
+      <c r="E5">
+        <v>803110</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>9.0602781686194914E-2</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14629378291890277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6">
+        <v>67260</v>
+      </c>
+      <c r="C6">
+        <v>121344</v>
+      </c>
+      <c r="D6">
+        <v>188602</v>
+      </c>
+      <c r="E6">
+        <v>864091</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>7.7839023899103216E-2</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14042965382118319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2005</v>
+      </c>
+      <c r="B7">
+        <v>68564</v>
+      </c>
+      <c r="C7">
+        <v>130178</v>
+      </c>
+      <c r="D7">
+        <v>198741</v>
+      </c>
+      <c r="E7">
+        <v>925444</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>7.4087681156288221E-2</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14066545355526644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+      <c r="B8">
+        <v>64662</v>
+      </c>
+      <c r="C8">
+        <v>141241</v>
+      </c>
+      <c r="D8">
+        <v>205904</v>
+      </c>
+      <c r="E8">
+        <v>999587</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>6.4688716439889674E-2</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14129935663428997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2007</v>
+      </c>
+      <c r="B9">
+        <v>63552</v>
+      </c>
+      <c r="C9">
+        <v>146820</v>
+      </c>
+      <c r="D9">
+        <v>210372</v>
+      </c>
+      <c r="E9">
+        <v>1089025</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>5.8356787034273779E-2</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.13481784164734512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2008</v>
+      </c>
+      <c r="B10">
+        <v>67244</v>
+      </c>
+      <c r="C10">
+        <v>138250</v>
+      </c>
+      <c r="D10">
+        <v>205493</v>
+      </c>
+      <c r="E10">
+        <v>1179633</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>5.700416994099012E-2</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11719746734789549</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2009</v>
+      </c>
+      <c r="B11">
+        <v>114440</v>
+      </c>
+      <c r="C11">
+        <v>173994</v>
+      </c>
+      <c r="D11">
+        <v>288434</v>
+      </c>
+      <c r="E11">
+        <v>1261444</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>9.0721427189792023E-2</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.13793240127980314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2010</v>
+      </c>
+      <c r="B12">
+        <v>171607</v>
+      </c>
+      <c r="C12">
+        <v>193019</v>
+      </c>
+      <c r="D12">
+        <v>364627</v>
+      </c>
+      <c r="E12">
+        <v>1304323</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13156787084180835</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14798404996308429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2011</v>
+      </c>
+      <c r="B13">
+        <v>212514</v>
+      </c>
+      <c r="C13">
+        <v>203242</v>
+      </c>
+      <c r="D13">
+        <v>415756</v>
+      </c>
+      <c r="E13">
+        <v>1418560</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1498096661403113</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14327346041055719</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2012</v>
+      </c>
+      <c r="B14">
+        <v>280090</v>
+      </c>
+      <c r="C14">
+        <v>299530</v>
+      </c>
+      <c r="D14">
+        <v>579619</v>
+      </c>
+      <c r="E14">
+        <v>1500738</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18663484232424313</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.19958846913984987</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2013</v>
+      </c>
+      <c r="B15">
+        <v>300647</v>
+      </c>
+      <c r="C15">
+        <v>262855</v>
+      </c>
+      <c r="D15">
+        <v>563501</v>
+      </c>
+      <c r="E15">
+        <v>1537270</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.19557202052990041</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.17098818034567773</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2014</v>
+      </c>
+      <c r="B16">
+        <v>363406</v>
+      </c>
+      <c r="C16">
+        <v>288693</v>
+      </c>
+      <c r="D16">
+        <v>652099</v>
+      </c>
+      <c r="E16">
+        <v>1599336</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.22722304756473938</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.18050803583487146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2015</v>
+      </c>
+      <c r="B17">
+        <v>424072</v>
+      </c>
+      <c r="C17">
+        <v>312706</v>
+      </c>
+      <c r="D17">
+        <v>736778</v>
+      </c>
+      <c r="E17">
+        <v>1624167</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.26110122912237471</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.19253315699678666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2016</v>
+      </c>
+      <c r="B18">
+        <v>502011</v>
+      </c>
+      <c r="C18">
+        <v>383038</v>
+      </c>
+      <c r="D18">
+        <v>885049</v>
+      </c>
+      <c r="E18">
+        <v>1657916</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.30279640223026982</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.23103583052458629</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2017</v>
+      </c>
+      <c r="B19">
+        <v>565628</v>
+      </c>
+      <c r="C19">
+        <v>349039</v>
+      </c>
+      <c r="D19">
+        <v>914667</v>
+      </c>
+      <c r="E19">
+        <v>1757656</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.32180813538030195</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.19858208887290801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2018</v>
+      </c>
+      <c r="B20">
+        <v>595411</v>
+      </c>
+      <c r="C20">
+        <v>385773</v>
+      </c>
+      <c r="D20">
+        <v>981184</v>
+      </c>
+      <c r="E20">
+        <v>1842048</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.3232331622194427</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20942613873254118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2019</v>
+      </c>
+      <c r="B21">
+        <v>645430</v>
+      </c>
+      <c r="C21">
+        <v>502255</v>
+      </c>
+      <c r="D21">
+        <v>1147685</v>
+      </c>
+      <c r="E21">
+        <v>1947322</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.33144492795747182</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="1"/>
+        <v>0.25792087800579461</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2020</v>
+      </c>
+      <c r="B22">
+        <v>822464</v>
+      </c>
+      <c r="C22">
+        <v>552224</v>
+      </c>
+      <c r="D22">
+        <v>1374688</v>
+      </c>
+      <c r="E22">
+        <v>1981664</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.41503705976391558</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.27866681738175592</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2021</v>
+      </c>
+      <c r="B23">
+        <v>924851</v>
+      </c>
+      <c r="C23">
+        <v>528102</v>
+      </c>
+      <c r="D23">
+        <v>1452953</v>
+      </c>
+      <c r="E23">
+        <v>2085822</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.44339881351332949</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="1"/>
+        <v>0.25318651351841143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2022</v>
+      </c>
+      <c r="B24">
+        <v>897988</v>
+      </c>
+      <c r="C24">
+        <v>447407</v>
+      </c>
+      <c r="D24">
+        <v>1345395</v>
+      </c>
+      <c r="E24">
+        <v>2330329</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.38534816328509836</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="1"/>
+        <v>0.19199306192387428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2023</v>
+      </c>
+      <c r="B25">
+        <v>876473</v>
+      </c>
+      <c r="C25">
+        <v>452299</v>
+      </c>
+      <c r="D25">
+        <v>1328772</v>
+      </c>
+      <c r="E25">
+        <v>2567512</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="0"/>
+        <v>0.34137055639856795</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="1"/>
+        <v>0.17616237041930086</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2024</v>
+      </c>
+      <c r="B26">
+        <v>895379</v>
+      </c>
+      <c r="C26">
+        <v>488885</v>
+      </c>
+      <c r="D26">
+        <v>1384264</v>
+      </c>
+      <c r="E26">
+        <v>2673672</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="0"/>
+        <v>0.33488737586360628</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="1"/>
+        <v>0.18285152404633029</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2025</v>
+      </c>
+      <c r="B27">
+        <v>935100</v>
+      </c>
+      <c r="C27">
+        <v>493023</v>
+      </c>
+      <c r="D27">
+        <v>1428123</v>
+      </c>
+      <c r="E27">
+        <v>2787609</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="0"/>
+        <v>0.33544876630833093</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="1"/>
+        <v>0.17686232179620601</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2026</v>
+      </c>
+      <c r="B28">
+        <v>1020440</v>
+      </c>
+      <c r="C28">
+        <v>507430</v>
+      </c>
+      <c r="D28">
+        <v>1527870</v>
+      </c>
+      <c r="E28">
+        <v>2879792</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="0"/>
+        <v>0.35434503603037998</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1762036980448588</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2027</v>
+      </c>
+      <c r="B29">
+        <v>1095631</v>
+      </c>
+      <c r="C29">
+        <v>514931</v>
+      </c>
+      <c r="D29">
+        <v>1610562</v>
+      </c>
+      <c r="E29">
+        <v>2992714</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="0"/>
+        <v>0.36609946690529066</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="1"/>
+        <v>0.17206154681001926</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2028</v>
+      </c>
+      <c r="B30">
+        <v>1169589</v>
+      </c>
+      <c r="C30">
+        <v>531370</v>
+      </c>
+      <c r="D30">
+        <v>1700958</v>
+      </c>
+      <c r="E30">
+        <v>3148870</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="0"/>
+        <v>0.3714313388612423</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16874942439668833</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2029</v>
+      </c>
+      <c r="B31">
+        <v>1239216</v>
+      </c>
+      <c r="C31">
+        <v>547347</v>
+      </c>
+      <c r="D31">
+        <v>1786563</v>
+      </c>
+      <c r="E31">
+        <v>3320000</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="0"/>
+        <v>0.37325783132530121</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16486355421686746</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/e61 Projects/Fiscal sustainability/OECD comparison/Nolan initial.xlsx
+++ b/e61 Projects/Fiscal sustainability/OECD comparison/Nolan initial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MattNolan\Git\TVHENZ\e61 Projects\Fiscal sustainability\OECD comparison\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\GitHub\TVHENZ\e61 Projects\Fiscal sustainability\OECD comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F1A9F0-FF68-4FDD-9724-8553D071AC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E96412-7781-496D-A76E-2A321BC9738F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="465" yWindow="105" windowWidth="28785" windowHeight="15255" activeTab="2" xr2:uid="{5C5EE693-185A-47EF-99E8-F1305E07FF3E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{5C5EE693-185A-47EF-99E8-F1305E07FF3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenses" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Assets" sheetId="4" r:id="rId6"/>
     <sheet name="Liabilities" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
   <si>
     <t>Defence</t>
   </si>
@@ -312,6 +312,15 @@
   </si>
   <si>
     <t>Other economic affairs</t>
+  </si>
+  <si>
+    <t>Historical sheets</t>
+  </si>
+  <si>
+    <t>Consolidated sheets</t>
+  </si>
+  <si>
+    <t>Do in R</t>
   </si>
 </sst>
 </file>
@@ -6150,16 +6159,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>606425</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>77787</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6186,16 +6195,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>153987</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>46037</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6681,7 +6690,7 @@
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6689,18 +6698,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D840F7-229A-4775-AC68-4DA8D65217E8}">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:T66"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -6716,16 +6728,22 @@
       <c r="G1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="T1" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2">
         <v>583</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="T2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -6733,7 +6751,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -6741,7 +6759,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -6749,7 +6767,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -6757,7 +6775,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -6765,7 +6783,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1971</v>
       </c>
@@ -6790,7 +6808,7 @@
         <v>2.7023010427761129E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -6812,7 +6830,7 @@
         <v>2.5971985274310855E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -6834,7 +6852,7 @@
         <v>2.4145959616233791E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -6856,7 +6874,7 @@
         <v>2.0989679108062886E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -6878,7 +6896,7 @@
         <v>2.1710452453126753E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1976</v>
       </c>
@@ -6903,7 +6921,7 @@
         <v>2.1092034697476874E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -6925,7 +6943,7 @@
         <v>2.1526947663842836E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -6947,7 +6965,7 @@
         <v>2.1397500452126902E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -6969,7 +6987,7 @@
         <v>2.0681582781066583E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -6991,7 +7009,7 @@
         <v>2.1089931210721023E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1981</v>
       </c>
@@ -7016,7 +7034,7 @@
         <v>2.197427146232607E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>18</v>
       </c>
@@ -7038,7 +7056,7 @@
         <v>2.2097122711247582E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -7060,7 +7078,7 @@
         <v>2.376263759469947E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>20</v>
       </c>
@@ -7082,7 +7100,7 @@
         <v>2.3659999812816458E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>21</v>
       </c>
@@ -7104,7 +7122,7 @@
         <v>2.4020823425504451E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1986</v>
       </c>
@@ -7129,7 +7147,7 @@
         <v>2.4275901194437205E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>23</v>
       </c>
@@ -7151,7 +7169,7 @@
         <v>2.3826069344582302E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>24</v>
       </c>
@@ -7173,7 +7191,7 @@
         <v>2.146452976443549E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>25</v>
       </c>
@@ -7195,7 +7213,7 @@
         <v>1.9612741357821879E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>26</v>
       </c>
@@ -7217,7 +7235,7 @@
         <v>1.9340060884004112E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1991</v>
       </c>
@@ -7242,7 +7260,7 @@
         <v>2.025126886442653E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>28</v>
       </c>
@@ -7264,7 +7282,7 @@
         <v>2.0440322150061072E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>29</v>
       </c>
@@ -7286,7 +7304,7 @@
         <v>2.1612678117191544E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -7308,7 +7326,7 @@
         <v>2.0901465438538592E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>31</v>
       </c>
@@ -7330,7 +7348,7 @@
         <v>1.9616938289432024E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1996</v>
       </c>
@@ -7355,7 +7373,7 @@
         <v>1.9035105960640491E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>33</v>
       </c>
@@ -7377,7 +7395,7 @@
         <v>1.8061099474370627E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>34</v>
       </c>
@@ -7399,7 +7417,7 @@
         <v>1.7774051703802012E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>35</v>
       </c>
@@ -7421,7 +7439,7 @@
         <v>1.8015207266551734E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>36</v>
       </c>
@@ -7443,7 +7461,7 @@
         <v>1.5023933264521425E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2001</v>
       </c>
@@ -7468,7 +7486,7 @@
         <v>1.6058716094339301E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>38</v>
       </c>
@@ -7490,7 +7508,7 @@
         <v>1.5886088667033293E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>39</v>
       </c>
@@ -7512,7 +7530,7 @@
         <v>1.6569336703564891E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>40</v>
       </c>
@@ -7534,7 +7552,7 @@
         <v>1.4971802738368992E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>41</v>
       </c>
@@ -7556,7 +7574,7 @@
         <v>1.5814030886795959E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2006</v>
       </c>
@@ -7581,7 +7599,7 @@
         <v>1.6200690885335645E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>43</v>
       </c>
@@ -7603,7 +7621,7 @@
         <v>1.5738848970409312E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>44</v>
       </c>
@@ -7628,7 +7646,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>45</v>
       </c>
@@ -7653,7 +7671,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>46</v>
       </c>
@@ -7675,7 +7693,7 @@
         <v>1.5448627372207651E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2011</v>
       </c>
@@ -7700,7 +7718,7 @@
         <v>1.4386420031581321E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>48</v>
       </c>
@@ -7722,7 +7740,7 @@
         <v>1.4454221856180094E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>49</v>
       </c>
@@ -7744,7 +7762,7 @@
         <v>1.3755553676322311E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>50</v>
       </c>
@@ -7766,7 +7784,7 @@
         <v>1.3826362940620358E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>51</v>
       </c>
@@ -7788,7 +7806,7 @@
         <v>1.4647508538222978E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2016</v>
       </c>
@@ -7813,7 +7831,7 @@
         <v>1.5690179719599788E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>53</v>
       </c>
@@ -7835,7 +7853,7 @@
         <v>1.5959323098490262E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>54</v>
       </c>
@@ -7857,7 +7875,7 @@
         <v>1.5899694253352789E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>55</v>
       </c>
@@ -7879,7 +7897,7 @@
         <v>1.5815566198091532E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>56</v>
       </c>
@@ -7901,7 +7919,7 @@
         <v>1.6747036833691283E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>2021</v>
       </c>
@@ -7926,7 +7944,7 @@
         <v>1.6303884032290387E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>58</v>
       </c>
@@ -7948,7 +7966,7 @@
         <v>1.6412274833296072E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>59</v>
       </c>
@@ -7970,7 +7988,7 @@
         <v>1.613858085181296E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>60</v>
       </c>
@@ -7992,7 +8010,7 @@
         <v>1.6869349344272599E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>61</v>
       </c>
@@ -8014,7 +8032,7 @@
         <v>1.7701191235930145E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>2026</v>
       </c>
@@ -8039,7 +8057,7 @@
         <v>1.7877332807369421E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>63</v>
       </c>
@@ -8061,7 +8079,7 @@
         <v>1.7564992845958551E-2</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>64</v>
       </c>
@@ -8083,7 +8101,7 @@
         <v>1.7938816146744706E-2</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>65</v>
       </c>
@@ -8116,11 +8134,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B4D560-835F-4CEF-BDE2-E61A63483F2C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8134,159 +8152,159 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>3187</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>3063</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>3899</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>3803</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>4286</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>4899</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>4874</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>5165</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>5926</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>6507</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>8628</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>9046</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>10054</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>10631</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>10838</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>10046</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>9199</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>9354</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>9861</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>9714</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>65494</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>82067</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>21781</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>14399</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" s="1">
         <v>13490.420999999998</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>14063</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>13558</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>12636</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>12263</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>12285</v>
       </c>
@@ -8307,7 +8325,7 @@
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8321,18 +8339,18 @@
       <selection activeCell="E2" sqref="E2:E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>70</v>
       </c>
@@ -8352,7 +8370,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -8377,7 +8395,7 @@
         <v>9.0526893987408624E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2001</v>
       </c>
@@ -8402,7 +8420,7 @@
         <v>4.8299133168599559E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2002</v>
       </c>
@@ -8427,7 +8445,7 @@
         <v>4.7114937180083763E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2003</v>
       </c>
@@ -8452,7 +8470,7 @@
         <v>4.509718469450013E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2004</v>
       </c>
@@ -8477,7 +8495,7 @@
         <v>4.6859647884308478E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2005</v>
       </c>
@@ -8502,7 +8520,7 @@
         <v>4.5787751608957428E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2006</v>
       </c>
@@ -8527,7 +8545,7 @@
         <v>4.5627844299695776E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2007</v>
       </c>
@@ -8552,7 +8570,7 @@
         <v>4.395766855673653E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>2008</v>
       </c>
@@ -8580,7 +8598,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2009</v>
       </c>
@@ -8605,7 +8623,7 @@
         <v>7.4138051312622674E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2010</v>
       </c>
@@ -8630,7 +8648,7 @@
         <v>7.7611143865438242E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2011</v>
       </c>
@@ -8655,7 +8673,7 @@
         <v>7.4316912925783893E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2012</v>
       </c>
@@ -8680,7 +8698,7 @@
         <v>7.404423690211083E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2013</v>
       </c>
@@ -8705,7 +8723,7 @@
         <v>7.1603556954861536E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2014</v>
       </c>
@@ -8730,7 +8748,7 @@
         <v>7.1458405238173844E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2015</v>
       </c>
@@ -8755,7 +8773,7 @@
         <v>7.3132257951306734E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2016</v>
       </c>
@@ -8780,7 +8798,7 @@
         <v>7.5006212618733401E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2017</v>
       </c>
@@ -8805,7 +8823,7 @@
         <v>7.870026899461556E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2018</v>
       </c>
@@ -8830,7 +8848,7 @@
         <v>7.8199916614550766E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2019</v>
       </c>
@@ -8855,7 +8873,7 @@
         <v>7.7536740200131252E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2020</v>
       </c>
@@ -8880,7 +8898,7 @@
         <v>8.8645703812553489E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2021</v>
       </c>
@@ -8905,7 +8923,7 @@
         <v>8.6629635702375377E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2022</v>
       </c>
@@ -8930,7 +8948,7 @@
         <v>8.3236744682832334E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2023</v>
       </c>
@@ -8955,7 +8973,7 @@
         <v>7.981384312906814E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2024</v>
       </c>
@@ -8980,7 +8998,7 @@
         <v>8.0294067484717652E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2025</v>
       </c>
@@ -9005,7 +9023,7 @@
         <v>7.9125874539793778E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2026</v>
       </c>
@@ -9030,7 +9048,7 @@
         <v>7.9270655658464223E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2027</v>
       </c>
@@ -9055,7 +9073,7 @@
         <v>7.8988169267093344E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2028</v>
       </c>
@@ -9080,7 +9098,7 @@
         <v>7.8616456062015894E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2029</v>
       </c>
@@ -9120,13 +9138,13 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>78</v>
       </c>
@@ -9146,7 +9164,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -9171,7 +9189,7 @@
         <v>0.1428843054524383</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -9196,7 +9214,7 @@
         <v>0.14164042046694675</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -9221,7 +9239,7 @@
         <v>0.13920718939041415</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -9246,7 +9264,7 @@
         <v>0.14629378291890277</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -9271,7 +9289,7 @@
         <v>0.14042965382118319</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -9296,7 +9314,7 @@
         <v>0.14066545355526644</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -9321,7 +9339,7 @@
         <v>0.14129935663428997</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -9346,7 +9364,7 @@
         <v>0.13481784164734512</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -9371,7 +9389,7 @@
         <v>0.11719746734789549</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -9396,7 +9414,7 @@
         <v>0.13793240127980314</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -9421,7 +9439,7 @@
         <v>0.14798404996308429</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -9446,7 +9464,7 @@
         <v>0.14327346041055719</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -9471,7 +9489,7 @@
         <v>0.19958846913984987</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -9496,7 +9514,7 @@
         <v>0.17098818034567773</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -9521,7 +9539,7 @@
         <v>0.18050803583487146</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -9546,7 +9564,7 @@
         <v>0.19253315699678666</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -9571,7 +9589,7 @@
         <v>0.23103583052458629</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -9596,7 +9614,7 @@
         <v>0.19858208887290801</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -9621,7 +9639,7 @@
         <v>0.20942613873254118</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -9646,7 +9664,7 @@
         <v>0.25792087800579461</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2020</v>
       </c>
@@ -9671,7 +9689,7 @@
         <v>0.27866681738175592</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2021</v>
       </c>
@@ -9696,7 +9714,7 @@
         <v>0.25318651351841143</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2022</v>
       </c>
@@ -9721,7 +9739,7 @@
         <v>0.19199306192387428</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2023</v>
       </c>
@@ -9746,7 +9764,7 @@
         <v>0.17616237041930086</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2024</v>
       </c>
@@ -9771,7 +9789,7 @@
         <v>0.18285152404633029</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2025</v>
       </c>
@@ -9796,7 +9814,7 @@
         <v>0.17686232179620601</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2026</v>
       </c>
@@ -9821,7 +9839,7 @@
         <v>0.1762036980448588</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2027</v>
       </c>
@@ -9846,7 +9864,7 @@
         <v>0.17206154681001926</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2028</v>
       </c>
@@ -9871,7 +9889,7 @@
         <v>0.16874942439668833</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2029</v>
       </c>
